--- a/Documentação/Parciais/Relatório de atividades ENTREGA_2.xlsx
+++ b/Documentação/Parciais/Relatório de atividades ENTREGA_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projeto_PHP\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trabalhoFinal\Documentação\Parciais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E6EBE-C310-46C6-873D-5F1D12AE7497}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B989DA89-FD82-4162-9565-BA3C65393964}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Alunos</t>
   </si>
@@ -55,16 +55,28 @@
     <t>Leitura de configuração dinâmica do banco de dados</t>
   </si>
   <si>
-    <t>Seleção das tecnologias e padrões</t>
-  </si>
-  <si>
-    <t>Seleção da arquitetura</t>
-  </si>
-  <si>
     <t>Formalização do documento de entrega</t>
   </si>
   <si>
     <t>Modo de conexão dinâmica via reflexão</t>
+  </si>
+  <si>
+    <t>Pesquisa sobre a arquitetura</t>
+  </si>
+  <si>
+    <t>Pesquisa sobre as tecnologias e padrões</t>
+  </si>
+  <si>
+    <t>Justificativa do uso da arquitetura, tecnologias e padrões</t>
+  </si>
+  <si>
+    <t>Seleção da arquitetura, tecnologias e padrões</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Willian</t>
   </si>
 </sst>
 </file>
@@ -475,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -515,7 +527,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -523,7 +535,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -534,10 +546,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -545,30 +557,47 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Parciais/Relatório de atividades ENTREGA_2.xlsx
+++ b/Documentação/Parciais/Relatório de atividades ENTREGA_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trabalhoFinal\Documentação\Parciais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B989DA89-FD82-4162-9565-BA3C65393964}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCADF1C-3C4E-40D6-86AF-B26F61924EE4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Alunos</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Willian</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -599,6 +602,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/Parciais/Relatório de atividades ENTREGA_2.xlsx
+++ b/Documentação/Parciais/Relatório de atividades ENTREGA_2.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trabalhoFinal\Documentação\Parciais\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCADF1C-3C4E-40D6-86AF-B26F61924EE4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Alunos</t>
   </si>
@@ -80,13 +75,31 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Modelagem Diagrama de Classe</t>
+  </si>
+  <si>
+    <t>Gabriel,Rafael</t>
+  </si>
+  <si>
+    <t>Revisão Diagrama de Classe</t>
+  </si>
+  <si>
+    <t>Mockups da interface do sistema</t>
+  </si>
+  <si>
+    <t>Revisão Mockups</t>
+  </si>
+  <si>
+    <t>Rafael, Willian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -131,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,16 +152,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,7 +201,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,9 +239,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,27 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,27 +307,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,24 +482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -525,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -536,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -547,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -558,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -569,7 +565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -580,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -591,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -602,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -611,4 +607,100 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>